--- a/Datasets/Population in Cities/Ciudades_y_sus_Areas_Metropolitanas_en_GEIH.xlsx
+++ b/Datasets/Population in Cities/Ciudades_y_sus_Areas_Metropolitanas_en_GEIH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dda39ef004021ca5/Documents/GitHub/Hertie_School_MDS_Master_Thesis/Datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dda39ef004021ca5/Documents/GitHub/Hertie_School_MDS_Master_Thesis/Datasets/Population in Cities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="14_{F4D8BE8C-9D96-4DB3-AF9B-F7AA3873154B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{337D3A17-6342-441B-A743-F5B7852BFD1B}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="14_{F4D8BE8C-9D96-4DB3-AF9B-F7AA3873154B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF577A19-A306-4A15-A15F-DC6577F2A971}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{294398BE-ACA2-4464-82F3-48684871EB93}"/>
+    <workbookView minimized="1" xWindow="2895" yWindow="2895" windowWidth="15375" windowHeight="7785" firstSheet="1" activeTab="1" xr2:uid="{294398BE-ACA2-4464-82F3-48684871EB93}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -316,7 +316,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,6 +326,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -373,6 +379,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -392,7 +401,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -710,11 +719,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B63E3A4-6F38-4504-B0CF-6B0FFE33F22D}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView topLeftCell="C23" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
@@ -1545,10 +1554,10 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F14"/>
+      <selection activeCell="B13" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -1558,7 +1567,7 @@
       <c r="A1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1572,7 +1581,7 @@
       <c r="A2" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
@@ -1586,7 +1595,7 @@
       <c r="A3" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
@@ -1600,7 +1609,7 @@
       <c r="A4" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
@@ -1614,7 +1623,7 @@
       <c r="A5" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
@@ -1628,7 +1637,7 @@
       <c r="A6" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
@@ -1642,7 +1651,7 @@
       <c r="A7" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
@@ -1656,7 +1665,7 @@
       <c r="A8" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
@@ -1670,7 +1679,7 @@
       <c r="A9" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
@@ -1684,7 +1693,7 @@
       <c r="A10" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
@@ -1698,7 +1707,7 @@
       <c r="A11" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
@@ -1712,7 +1721,7 @@
       <c r="A12" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
@@ -1726,7 +1735,7 @@
       <c r="A13" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
@@ -1740,7 +1749,7 @@
       <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">

--- a/Datasets/Population in Cities/Ciudades_y_sus_Areas_Metropolitanas_en_GEIH.xlsx
+++ b/Datasets/Population in Cities/Ciudades_y_sus_Areas_Metropolitanas_en_GEIH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dda39ef004021ca5/Documents/GitHub/Hertie_School_MDS_Master_Thesis/Datasets/Population in Cities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="14_{F4D8BE8C-9D96-4DB3-AF9B-F7AA3873154B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF577A19-A306-4A15-A15F-DC6577F2A971}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="14_{F4D8BE8C-9D96-4DB3-AF9B-F7AA3873154B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFD44939-2203-461E-830A-AC42D81CAAF2}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2895" yWindow="2895" windowWidth="15375" windowHeight="7785" firstSheet="1" activeTab="1" xr2:uid="{294398BE-ACA2-4464-82F3-48684871EB93}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{294398BE-ACA2-4464-82F3-48684871EB93}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="88">
   <si>
     <t>MEDELLÍN A.M.</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t xml:space="preserve">Manizales     </t>
+  </si>
+  <si>
+    <t>Floridablanca, Girón y Piedecuesta,</t>
   </si>
 </sst>
 </file>
@@ -719,7 +722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B63E3A4-6F38-4504-B0CF-6B0FFE33F22D}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="C23" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F35"/>
     </sheetView>
   </sheetViews>
@@ -1551,10 +1554,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7251F6B-8B3E-4325-A111-004E099EF1D2}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B12:B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1759,6 +1762,11 @@
         <v>52</v>
       </c>
     </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F1:F14">
     <sortCondition ref="F1:F14"/>
